--- a/Code/Results/Cases/Case_1_169/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_169/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8205498886191265</v>
+        <v>0.9836888475726653</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.04242215961585494</v>
+        <v>0.05153266548520641</v>
       </c>
       <c r="E2">
-        <v>0.1832723811259713</v>
+        <v>0.3485376677749841</v>
       </c>
       <c r="F2">
-        <v>1.225414507289884</v>
+        <v>1.358309705618936</v>
       </c>
       <c r="G2">
-        <v>1.199896719307262</v>
+        <v>1.248498679635105</v>
       </c>
       <c r="H2">
-        <v>0.7652200948972023</v>
+        <v>1.165324874991541</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,13 +448,13 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.273487650661423</v>
+        <v>0.3589642046039501</v>
       </c>
       <c r="L2">
-        <v>0.1687365141681738</v>
+        <v>0.1130745574415073</v>
       </c>
       <c r="M2">
-        <v>0.1969422199702002</v>
+        <v>0.1976515154339644</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7371369730527704</v>
+        <v>0.9666629224337555</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.04273665838881513</v>
+        <v>0.05135146586769856</v>
       </c>
       <c r="E3">
-        <v>0.1851542319284492</v>
+        <v>0.3494438080191173</v>
       </c>
       <c r="F3">
-        <v>1.136949085574585</v>
+        <v>1.340980092912403</v>
       </c>
       <c r="G3">
-        <v>1.115072821698163</v>
+        <v>1.231150063216816</v>
       </c>
       <c r="H3">
-        <v>0.7326804947457219</v>
+        <v>1.161908656791923</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,13 +495,13 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.119048281099509</v>
+        <v>0.3128378069403368</v>
       </c>
       <c r="L3">
-        <v>0.1469233822610789</v>
+        <v>0.107779728634199</v>
       </c>
       <c r="M3">
-        <v>0.1746200822024662</v>
+        <v>0.1927531806438658</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6867881792717867</v>
+        <v>0.956697222465607</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.04292245514496429</v>
+        <v>0.05123492601603807</v>
       </c>
       <c r="E4">
-        <v>0.1863806359037685</v>
+        <v>0.3500366861709487</v>
       </c>
       <c r="F4">
-        <v>1.084529854054736</v>
+        <v>1.331034923750934</v>
       </c>
       <c r="G4">
-        <v>1.064940935289471</v>
+        <v>1.221156276963427</v>
       </c>
       <c r="H4">
-        <v>0.7138040279248798</v>
+        <v>1.160292207186899</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,13 +542,13 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.024490544265802</v>
+        <v>0.2844377724248375</v>
       </c>
       <c r="L4">
-        <v>0.1336838196249701</v>
+        <v>0.1045943035808605</v>
       </c>
       <c r="M4">
-        <v>0.1611157592246144</v>
+        <v>0.1898510190654612</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6664721415779411</v>
+        <v>0.9527592378627503</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.04299644867266217</v>
+        <v>0.05118611249832838</v>
       </c>
       <c r="E5">
-        <v>0.1868979990692554</v>
+        <v>0.3502874814278365</v>
       </c>
       <c r="F5">
-        <v>1.063612275996007</v>
+        <v>1.327156793782251</v>
       </c>
       <c r="G5">
-        <v>1.044966883097146</v>
+        <v>1.217248931866621</v>
       </c>
       <c r="H5">
-        <v>0.7063728993219343</v>
+        <v>1.159754429404742</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,13 +589,13 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.9859995314062928</v>
+        <v>0.2728449572488785</v>
       </c>
       <c r="L5">
-        <v>0.1283228647073145</v>
+        <v>0.103312748721109</v>
       </c>
       <c r="M5">
-        <v>0.155658886240996</v>
+        <v>0.1886949443965911</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.663110384735603</v>
+        <v>0.952112784532801</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.04300863477297767</v>
+        <v>0.0511779273418167</v>
       </c>
       <c r="E6">
-        <v>0.186984962621398</v>
+        <v>0.3503296813908046</v>
       </c>
       <c r="F6">
-        <v>1.060164775195346</v>
+        <v>1.326523372481475</v>
       </c>
       <c r="G6">
-        <v>1.041676700972417</v>
+        <v>1.216610088185334</v>
       </c>
       <c r="H6">
-        <v>0.7051542867496892</v>
+        <v>1.159672434957088</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,13 +636,13 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.9796099527160607</v>
+        <v>0.2709188003141776</v>
       </c>
       <c r="L6">
-        <v>0.1274346289175696</v>
+        <v>0.1031009469105157</v>
       </c>
       <c r="M6">
-        <v>0.1547554453036071</v>
+        <v>0.1885045864193664</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6865133953321561</v>
+        <v>0.9566436144769455</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.04292345985753876</v>
+        <v>0.05123427304789807</v>
       </c>
       <c r="E7">
-        <v>0.1863875423184456</v>
+        <v>0.3500400312445628</v>
       </c>
       <c r="F7">
-        <v>1.084245999038842</v>
+        <v>1.330981915262598</v>
       </c>
       <c r="G7">
-        <v>1.06466976071043</v>
+        <v>1.221102912691123</v>
       </c>
       <c r="H7">
-        <v>0.7137027722553313</v>
+        <v>1.160284464915719</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,13 +683,13 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.023971303327528</v>
+        <v>0.2842815067619142</v>
       </c>
       <c r="L7">
-        <v>0.1336113867511131</v>
+        <v>0.1045769531058838</v>
       </c>
       <c r="M7">
-        <v>0.1610419843385742</v>
+        <v>0.1898353201282319</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7915988735149426</v>
+        <v>0.9777171573561247</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.04253218592014107</v>
+        <v>0.05147128762207132</v>
       </c>
       <c r="E8">
-        <v>0.1839063667633964</v>
+        <v>0.3488425364638728</v>
       </c>
       <c r="F8">
-        <v>1.194496502421146</v>
+        <v>1.352190003998459</v>
       </c>
       <c r="G8">
-        <v>1.170222689993636</v>
+        <v>1.242380027216512</v>
       </c>
       <c r="H8">
-        <v>0.7537614665603201</v>
+        <v>1.164047076273008</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,13 +730,13 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.220165255132571</v>
+        <v>0.3430761084274252</v>
       </c>
       <c r="L8">
-        <v>0.1611806891136993</v>
+        <v>0.1112352970878447</v>
       </c>
       <c r="M8">
-        <v>0.1892009529311132</v>
+        <v>0.1959407244030338</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.005358061471838</v>
+        <v>1.022905267140629</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.04170164027534007</v>
+        <v>0.05189392209198651</v>
       </c>
       <c r="E9">
-        <v>0.1796156371639643</v>
+        <v>0.3467832930061361</v>
       </c>
       <c r="F9">
-        <v>1.427407293989802</v>
+        <v>1.399309704366047</v>
       </c>
       <c r="G9">
-        <v>1.394403455978193</v>
+        <v>1.289346779375734</v>
       </c>
       <c r="H9">
-        <v>0.8418539329481973</v>
+        <v>1.175246603054603</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,13 +777,13 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.608291481519956</v>
+        <v>0.4577526047998504</v>
       </c>
       <c r="L9">
-        <v>0.2166794797523579</v>
+        <v>0.1248124601969636</v>
       </c>
       <c r="M9">
-        <v>0.2462366637433533</v>
+        <v>0.2087479269541177</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.168313247363216</v>
+        <v>1.058449588371786</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.04104555723675674</v>
+        <v>0.05217844395249926</v>
       </c>
       <c r="E10">
-        <v>0.176831968260263</v>
+        <v>0.3454457260728079</v>
       </c>
       <c r="F10">
-        <v>1.611191487024612</v>
+        <v>1.437324835458057</v>
       </c>
       <c r="G10">
-        <v>1.572179286301321</v>
+        <v>1.327080225509434</v>
       </c>
       <c r="H10">
-        <v>0.9135754426113465</v>
+        <v>1.185811575852682</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,13 +824,13 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.897438848556845</v>
+        <v>0.5416380266496787</v>
       </c>
       <c r="L10">
-        <v>0.258656013953896</v>
+        <v>0.1351052854706154</v>
       </c>
       <c r="M10">
-        <v>0.2895760377704661</v>
+        <v>0.2186646610085603</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.244024785844516</v>
+        <v>1.075126889773486</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.0407355383998862</v>
+        <v>0.05230217971328344</v>
       </c>
       <c r="E11">
-        <v>0.1756503028266048</v>
+        <v>0.3448751306452174</v>
       </c>
       <c r="F11">
-        <v>1.69815485535797</v>
+        <v>1.455361994108173</v>
       </c>
       <c r="G11">
-        <v>1.656525341441665</v>
+        <v>1.344953833601693</v>
       </c>
       <c r="H11">
-        <v>0.9480134868671826</v>
+        <v>1.191126965139603</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,13 +871,13 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>2.030320293598379</v>
+        <v>0.5797226925699306</v>
       </c>
       <c r="L11">
-        <v>0.2780929389314366</v>
+        <v>0.1398569505229688</v>
       </c>
       <c r="M11">
-        <v>0.3096837904758303</v>
+        <v>0.2232859734486112</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.272949070635008</v>
+        <v>1.081514946874563</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.0406163492301701</v>
+        <v>0.05234821142714097</v>
       </c>
       <c r="E12">
-        <v>0.1752154529883097</v>
+        <v>0.3446644935549195</v>
       </c>
       <c r="F12">
-        <v>1.731623946688117</v>
+        <v>1.462299508231325</v>
       </c>
       <c r="G12">
-        <v>1.689022648998701</v>
+        <v>1.351824437482549</v>
       </c>
       <c r="H12">
-        <v>0.9613413641309307</v>
+        <v>1.193213101435219</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,13 +918,13 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>2.080875993589359</v>
+        <v>0.594133590481448</v>
       </c>
       <c r="L12">
-        <v>0.2855095633628792</v>
+        <v>0.1416662541148952</v>
       </c>
       <c r="M12">
-        <v>0.3173617323261411</v>
+        <v>0.2250517370251259</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.26670796795969</v>
+        <v>1.080135935190299</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.04064210050268713</v>
+        <v>0.05233833442117941</v>
       </c>
       <c r="E13">
-        <v>0.1753085366220706</v>
+        <v>0.3447096164670223</v>
       </c>
       <c r="F13">
-        <v>1.72439092507183</v>
+        <v>1.460800616995499</v>
       </c>
       <c r="G13">
-        <v>1.681998012851409</v>
+        <v>1.350340176102009</v>
       </c>
       <c r="H13">
-        <v>0.9584577585138447</v>
+        <v>1.192760552846721</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,13 +965,13 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>2.069976681844935</v>
+        <v>0.5910304341271342</v>
       </c>
       <c r="L13">
-        <v>0.2839096363780413</v>
+        <v>0.1412761460975105</v>
       </c>
       <c r="M13">
-        <v>0.3157052023975098</v>
+        <v>0.2246707477757113</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.246399154815862</v>
+        <v>1.075650983419933</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.04072576928655636</v>
+        <v>0.05230598332124714</v>
       </c>
       <c r="E14">
-        <v>0.175614271756678</v>
+        <v>0.344857692540125</v>
       </c>
       <c r="F14">
-        <v>1.700897263815463</v>
+        <v>1.455930596939893</v>
       </c>
       <c r="G14">
-        <v>1.659187396832635</v>
+        <v>1.345517030781195</v>
       </c>
       <c r="H14">
-        <v>0.9491040685708754</v>
+        <v>1.191297123094273</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,13 +1012,13 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>2.03447454479354</v>
+        <v>0.5809085057094876</v>
       </c>
       <c r="L14">
-        <v>0.2787019377553861</v>
+        <v>0.1400056037495432</v>
       </c>
       <c r="M14">
-        <v>0.3103141421717766</v>
+        <v>0.2234309281407789</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.233993317343248</v>
+        <v>1.072913282252955</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.04077678165073095</v>
+        <v>0.05228605982800971</v>
       </c>
       <c r="E15">
-        <v>0.1758032012520427</v>
+        <v>0.3449491008940102</v>
       </c>
       <c r="F15">
-        <v>1.686578490459766</v>
+        <v>1.452961541839088</v>
       </c>
       <c r="G15">
-        <v>1.645289610591476</v>
+        <v>1.342576043033972</v>
       </c>
       <c r="H15">
-        <v>0.9434128572336533</v>
+        <v>1.190410279890159</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,13 +1059,13 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>2.012760581705209</v>
+        <v>0.5747071042875973</v>
       </c>
       <c r="L15">
-        <v>0.2755196252722669</v>
+        <v>0.1392286549432953</v>
       </c>
       <c r="M15">
-        <v>0.3070204636009208</v>
+        <v>0.2226735549807799</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.163399369959109</v>
+        <v>1.057369882037477</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.04106557400833921</v>
+        <v>0.05217024246800861</v>
       </c>
       <c r="E16">
-        <v>0.1769109333633549</v>
+        <v>0.3454837769582753</v>
       </c>
       <c r="F16">
-        <v>1.605580402071368</v>
+        <v>1.436161056152969</v>
       </c>
       <c r="G16">
-        <v>1.566741803039179</v>
+        <v>1.325926431886131</v>
       </c>
       <c r="H16">
-        <v>0.9113634941747648</v>
+        <v>1.185474457889995</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,13 +1106,13 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.888785394641928</v>
+        <v>0.5391475799065404</v>
       </c>
       <c r="L16">
-        <v>0.2573932366342149</v>
+        <v>0.1347961471002463</v>
       </c>
       <c r="M16">
-        <v>0.2882704421965911</v>
+        <v>0.2183648580915687</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.120515664377905</v>
+        <v>1.047964390401802</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.04123968563823865</v>
+        <v>0.05209772979390692</v>
       </c>
       <c r="E17">
-        <v>0.1776124738718883</v>
+        <v>0.3458214752823228</v>
       </c>
       <c r="F17">
-        <v>1.556788577430453</v>
+        <v>1.426045217025575</v>
       </c>
       <c r="G17">
-        <v>1.519484645687754</v>
+        <v>1.315894161666478</v>
       </c>
       <c r="H17">
-        <v>0.8921842992037057</v>
+        <v>1.182576994231084</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,13 +1153,13 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.813104726500995</v>
+        <v>0.5173136074842546</v>
       </c>
       <c r="L17">
-        <v>0.2463656715326294</v>
+        <v>0.1320947027881374</v>
       </c>
       <c r="M17">
-        <v>0.2768733154960117</v>
+        <v>0.2157497751285078</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.095997325251915</v>
+        <v>1.042602436187934</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.04133874941402382</v>
+        <v>0.05205548672577365</v>
       </c>
       <c r="E18">
-        <v>0.1780239182883125</v>
+        <v>0.3460192756111224</v>
       </c>
       <c r="F18">
-        <v>1.529037409236011</v>
+        <v>1.420296856120629</v>
       </c>
       <c r="G18">
-        <v>1.492626912935037</v>
+        <v>1.31019052752734</v>
       </c>
       <c r="H18">
-        <v>0.8813217283459096</v>
+        <v>1.180958385946553</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,13 +1200,13 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.769699194276882</v>
+        <v>0.5047482096130125</v>
       </c>
       <c r="L18">
-        <v>0.2400545945656631</v>
+        <v>0.1305474381372278</v>
       </c>
       <c r="M18">
-        <v>0.2703544668238038</v>
+        <v>0.2142560193707581</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.087720355596247</v>
+        <v>1.040795196451256</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.0413721090222694</v>
+        <v>0.05204109211290842</v>
       </c>
       <c r="E19">
-        <v>0.1781645765651358</v>
+        <v>0.3460868600552853</v>
       </c>
       <c r="F19">
-        <v>1.519693435315915</v>
+        <v>1.418362574793349</v>
       </c>
       <c r="G19">
-        <v>1.483587208046885</v>
+        <v>1.308270812786105</v>
       </c>
       <c r="H19">
-        <v>0.8776720723295455</v>
+        <v>1.180418583876815</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,13 +1247,13 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.755022885521356</v>
+        <v>0.5004925704924119</v>
       </c>
       <c r="L19">
-        <v>0.2379230066256497</v>
+        <v>0.1300246841549892</v>
       </c>
       <c r="M19">
-        <v>0.2681533541042889</v>
+        <v>0.2137520425276591</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.125065285606809</v>
+        <v>1.048960672588436</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.04122126393034975</v>
+        <v>0.05210550437408656</v>
       </c>
       <c r="E20">
-        <v>0.177536969152321</v>
+        <v>0.3457851578147171</v>
       </c>
       <c r="F20">
-        <v>1.561949815413229</v>
+        <v>1.427114818486487</v>
       </c>
       <c r="G20">
-        <v>1.524481386231685</v>
+        <v>1.316955211905821</v>
       </c>
       <c r="H20">
-        <v>0.8942083037547093</v>
+        <v>1.18288047243891</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,13 +1294,13 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.821147934178953</v>
+        <v>0.5196386041863548</v>
       </c>
       <c r="L20">
-        <v>0.2475362453407541</v>
+        <v>0.1323816000495697</v>
       </c>
       <c r="M20">
-        <v>0.2780827340935588</v>
+        <v>0.2160270823101342</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.25235723103475</v>
+        <v>1.076966351326575</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.04070124339659031</v>
+        <v>0.05231550803778262</v>
       </c>
       <c r="E21">
-        <v>0.175524123554073</v>
+        <v>0.3448140515880835</v>
       </c>
       <c r="F21">
-        <v>1.707782859118581</v>
+        <v>1.457358127491389</v>
       </c>
       <c r="G21">
-        <v>1.665871817724621</v>
+        <v>1.346930927252998</v>
       </c>
       <c r="H21">
-        <v>0.9518434638241899</v>
+        <v>1.191724977591321</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>2.044895606972347</v>
+        <v>0.5838818592468442</v>
       </c>
       <c r="L21">
-        <v>0.2802299772688031</v>
+        <v>0.1403785229958459</v>
       </c>
       <c r="M21">
-        <v>0.311895841908715</v>
+        <v>0.2237946656673842</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.337044137636639</v>
+        <v>1.095693428431559</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.04035087571046958</v>
+        <v>0.05244795032794869</v>
       </c>
       <c r="E22">
-        <v>0.1742824264598823</v>
+        <v>0.3442110520673536</v>
       </c>
       <c r="F22">
-        <v>1.806257975330922</v>
+        <v>1.477749039854217</v>
       </c>
       <c r="G22">
-        <v>1.761557588525847</v>
+        <v>1.367117993866145</v>
       </c>
       <c r="H22">
-        <v>0.9911979402903057</v>
+        <v>1.197932735568116</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,13 +1388,13 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>2.192528311187914</v>
+        <v>0.6258047297558562</v>
       </c>
       <c r="L22">
-        <v>0.3019290839483517</v>
+        <v>0.145662964106009</v>
       </c>
       <c r="M22">
-        <v>0.3343689854634349</v>
+        <v>0.2289631368159846</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.291699082233549</v>
+        <v>1.085659769318198</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.04053887750358953</v>
+        <v>0.05237770500065153</v>
       </c>
       <c r="E23">
-        <v>0.1749382269149296</v>
+        <v>0.3445299895462757</v>
       </c>
       <c r="F23">
-        <v>1.753390889664232</v>
+        <v>1.46680873678217</v>
       </c>
       <c r="G23">
-        <v>1.710167824704826</v>
+        <v>1.356289098886805</v>
       </c>
       <c r="H23">
-        <v>0.9700300088361473</v>
+        <v>1.194580410487191</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,13 +1435,13 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>2.113590593264377</v>
+        <v>0.6034355818705706</v>
       </c>
       <c r="L23">
-        <v>0.2903149574632664</v>
+        <v>0.1428372619811</v>
       </c>
       <c r="M23">
-        <v>0.3223378702189024</v>
+        <v>0.2261962384459721</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.123007979977473</v>
+        <v>1.048510112007705</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.04122959559951411</v>
+        <v>0.05210199121325232</v>
       </c>
       <c r="E24">
-        <v>0.1775710795791516</v>
+        <v>0.3458015655633853</v>
       </c>
       <c r="F24">
-        <v>1.55961548968591</v>
+        <v>1.426631041826539</v>
       </c>
       <c r="G24">
-        <v>1.522221395312101</v>
+        <v>1.316475311599817</v>
       </c>
       <c r="H24">
-        <v>0.8932927430537063</v>
+        <v>1.182743122967082</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,13 +1482,13 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.817511278318904</v>
+        <v>0.5185875129093631</v>
       </c>
       <c r="L24">
-        <v>0.247006939696945</v>
+        <v>0.1322518756311695</v>
       </c>
       <c r="M24">
-        <v>0.2775358520974294</v>
+        <v>0.2159016815446648</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9465872428919511</v>
+        <v>1.010268208455443</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.04193385005953054</v>
+        <v>0.05178413162492745</v>
       </c>
       <c r="E25">
-        <v>0.1807130790071003</v>
+        <v>0.3473095171989353</v>
       </c>
       <c r="F25">
-        <v>1.362365975796195</v>
+        <v>1.385967930351626</v>
       </c>
       <c r="G25">
-        <v>1.331661361730397</v>
+        <v>1.276076579724815</v>
       </c>
       <c r="H25">
-        <v>0.8168849284756448</v>
+        <v>1.171807014876862</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,13 +1529,13 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.502741327526877</v>
+        <v>0.4267948550564427</v>
       </c>
       <c r="L25">
-        <v>0.2014797817724201</v>
+        <v>0.1210837328456051</v>
       </c>
       <c r="M25">
-        <v>0.2305802321211132</v>
+        <v>0.2051940516405395</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_169/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_169/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9836888475726653</v>
+        <v>0.8205498886190696</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.05153266548520641</v>
+        <v>0.04242215961586027</v>
       </c>
       <c r="E2">
-        <v>0.3485376677749841</v>
+        <v>0.1832723811259558</v>
       </c>
       <c r="F2">
-        <v>1.358309705618936</v>
+        <v>1.225414507289898</v>
       </c>
       <c r="G2">
-        <v>1.248498679635105</v>
+        <v>1.199896719307247</v>
       </c>
       <c r="H2">
-        <v>1.165324874991541</v>
+        <v>0.7652200948972023</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,13 +448,13 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.3589642046039501</v>
+        <v>1.273487650661508</v>
       </c>
       <c r="L2">
-        <v>0.1130745574415073</v>
+        <v>0.1687365141681596</v>
       </c>
       <c r="M2">
-        <v>0.1976515154339644</v>
+        <v>0.1969422199702109</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9666629224337555</v>
+        <v>0.7371369730527988</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.05135146586769856</v>
+        <v>0.04273665838895191</v>
       </c>
       <c r="E3">
-        <v>0.3494438080191173</v>
+        <v>0.1851542319284492</v>
       </c>
       <c r="F3">
-        <v>1.340980092912403</v>
+        <v>1.136949085574585</v>
       </c>
       <c r="G3">
-        <v>1.231150063216816</v>
+        <v>1.115072821698135</v>
       </c>
       <c r="H3">
-        <v>1.161908656791923</v>
+        <v>0.7326804947456083</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,13 +495,13 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.3128378069403368</v>
+        <v>1.119048281099481</v>
       </c>
       <c r="L3">
-        <v>0.107779728634199</v>
+        <v>0.1469233822611216</v>
       </c>
       <c r="M3">
-        <v>0.1927531806438658</v>
+        <v>0.1746200822024804</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.956697222465607</v>
+        <v>0.6867881792717867</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.05123492601603807</v>
+        <v>0.04292245514485771</v>
       </c>
       <c r="E4">
-        <v>0.3500366861709487</v>
+        <v>0.1863806359037747</v>
       </c>
       <c r="F4">
-        <v>1.331034923750934</v>
+        <v>1.084529854054736</v>
       </c>
       <c r="G4">
-        <v>1.221156276963427</v>
+        <v>1.064940935289528</v>
       </c>
       <c r="H4">
-        <v>1.160292207186899</v>
+        <v>0.7138040279249083</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,13 +542,13 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.2844377724248375</v>
+        <v>1.024490544265859</v>
       </c>
       <c r="L4">
-        <v>0.1045943035808605</v>
+        <v>0.1336838196249985</v>
       </c>
       <c r="M4">
-        <v>0.1898510190654612</v>
+        <v>0.1611157592246144</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9527592378627503</v>
+        <v>0.6664721415779127</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.05118611249832838</v>
+        <v>0.04299644867272079</v>
       </c>
       <c r="E5">
-        <v>0.3502874814278365</v>
+        <v>0.1868979990692607</v>
       </c>
       <c r="F5">
-        <v>1.327156793782251</v>
+        <v>1.063612275996007</v>
       </c>
       <c r="G5">
-        <v>1.217248931866621</v>
+        <v>1.044966883097203</v>
       </c>
       <c r="H5">
-        <v>1.159754429404742</v>
+        <v>0.7063728993219343</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,13 +589,13 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.2728449572488785</v>
+        <v>0.9859995314063497</v>
       </c>
       <c r="L5">
-        <v>0.103312748721109</v>
+        <v>0.1283228647073216</v>
       </c>
       <c r="M5">
-        <v>0.1886949443965911</v>
+        <v>0.1556588862409782</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.952112784532801</v>
+        <v>0.663110384735603</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.0511779273418167</v>
+        <v>0.04300863477298478</v>
       </c>
       <c r="E6">
-        <v>0.3503296813908046</v>
+        <v>0.1869849626214068</v>
       </c>
       <c r="F6">
-        <v>1.326523372481475</v>
+        <v>1.060164775195346</v>
       </c>
       <c r="G6">
-        <v>1.216610088185334</v>
+        <v>1.041676700972403</v>
       </c>
       <c r="H6">
-        <v>1.159672434957088</v>
+        <v>0.7051542867496892</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,13 +636,13 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.2709188003141776</v>
+        <v>0.9796099527160607</v>
       </c>
       <c r="L6">
-        <v>0.1031009469105157</v>
+        <v>0.1274346289176194</v>
       </c>
       <c r="M6">
-        <v>0.1885045864193664</v>
+        <v>0.1547554453035929</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9566436144769455</v>
+        <v>0.6865133953321276</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.05123427304789807</v>
+        <v>0.04292345985762047</v>
       </c>
       <c r="E7">
-        <v>0.3500400312445628</v>
+        <v>0.1863875423184593</v>
       </c>
       <c r="F7">
-        <v>1.330981915262598</v>
+        <v>1.084245999038856</v>
       </c>
       <c r="G7">
-        <v>1.221102912691123</v>
+        <v>1.064669760710402</v>
       </c>
       <c r="H7">
-        <v>1.160284464915719</v>
+        <v>0.7137027722553455</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,13 +683,13 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.2842815067619142</v>
+        <v>1.023971303327443</v>
       </c>
       <c r="L7">
-        <v>0.1045769531058838</v>
+        <v>0.1336113867511557</v>
       </c>
       <c r="M7">
-        <v>0.1898353201282319</v>
+        <v>0.1610419843385884</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9777171573561247</v>
+        <v>0.7915988735150563</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.05147128762207132</v>
+        <v>0.04253218592020858</v>
       </c>
       <c r="E8">
-        <v>0.3488425364638728</v>
+        <v>0.1839063667633929</v>
       </c>
       <c r="F8">
-        <v>1.352190003998459</v>
+        <v>1.194496502421131</v>
       </c>
       <c r="G8">
-        <v>1.242380027216512</v>
+        <v>1.170222689993651</v>
       </c>
       <c r="H8">
-        <v>1.164047076273008</v>
+        <v>0.7537614665602064</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,13 +730,13 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.3430761084274252</v>
+        <v>1.220165255132656</v>
       </c>
       <c r="L8">
-        <v>0.1112352970878447</v>
+        <v>0.161180689113678</v>
       </c>
       <c r="M8">
-        <v>0.1959407244030338</v>
+        <v>0.1892009529311061</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.022905267140629</v>
+        <v>1.005358061471924</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.05189392209198651</v>
+        <v>0.04170164027533829</v>
       </c>
       <c r="E9">
-        <v>0.3467832930061361</v>
+        <v>0.179615637163975</v>
       </c>
       <c r="F9">
-        <v>1.399309704366047</v>
+        <v>1.427407293989802</v>
       </c>
       <c r="G9">
-        <v>1.289346779375734</v>
+        <v>1.394403455978164</v>
       </c>
       <c r="H9">
-        <v>1.175246603054603</v>
+        <v>0.841853932948311</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,13 +777,13 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.4577526047998504</v>
+        <v>1.608291481519956</v>
       </c>
       <c r="L9">
-        <v>0.1248124601969636</v>
+        <v>0.2166794797523153</v>
       </c>
       <c r="M9">
-        <v>0.2087479269541177</v>
+        <v>0.2462366637433497</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.058449588371786</v>
+        <v>1.168313247363102</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.05217844395249926</v>
+        <v>0.04104555723664305</v>
       </c>
       <c r="E10">
-        <v>0.3454457260728079</v>
+        <v>0.1768319682602524</v>
       </c>
       <c r="F10">
-        <v>1.437324835458057</v>
+        <v>1.611191487024655</v>
       </c>
       <c r="G10">
-        <v>1.327080225509434</v>
+        <v>1.572179286301321</v>
       </c>
       <c r="H10">
-        <v>1.185811575852682</v>
+        <v>0.9135754426113465</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,13 +824,13 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.5416380266496787</v>
+        <v>1.897438848556874</v>
       </c>
       <c r="L10">
-        <v>0.1351052854706154</v>
+        <v>0.2586560139539955</v>
       </c>
       <c r="M10">
-        <v>0.2186646610085603</v>
+        <v>0.2895760377704661</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.075126889773486</v>
+        <v>1.244024785844573</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.05230217971328344</v>
+        <v>0.04073553839974409</v>
       </c>
       <c r="E11">
-        <v>0.3448751306452174</v>
+        <v>0.1756503028266092</v>
       </c>
       <c r="F11">
-        <v>1.455361994108173</v>
+        <v>1.69815485535797</v>
       </c>
       <c r="G11">
-        <v>1.344953833601693</v>
+        <v>1.65652534144175</v>
       </c>
       <c r="H11">
-        <v>1.191126965139603</v>
+        <v>0.9480134868671826</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,13 +871,13 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.5797226925699306</v>
+        <v>2.030320293598436</v>
       </c>
       <c r="L11">
-        <v>0.1398569505229688</v>
+        <v>0.2780929389314934</v>
       </c>
       <c r="M11">
-        <v>0.2232859734486112</v>
+        <v>0.3096837904758303</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.081514946874563</v>
+        <v>1.27294907063478</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.05234821142714097</v>
+        <v>0.04061634923027668</v>
       </c>
       <c r="E12">
-        <v>0.3446644935549195</v>
+        <v>0.1752154529882937</v>
       </c>
       <c r="F12">
-        <v>1.462299508231325</v>
+        <v>1.731623946688117</v>
       </c>
       <c r="G12">
-        <v>1.351824437482549</v>
+        <v>1.689022648998588</v>
       </c>
       <c r="H12">
-        <v>1.193213101435219</v>
+        <v>0.9613413641309023</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,13 +918,13 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.594133590481448</v>
+        <v>2.080875993589416</v>
       </c>
       <c r="L12">
-        <v>0.1416662541148952</v>
+        <v>0.2855095633629787</v>
       </c>
       <c r="M12">
-        <v>0.2250517370251259</v>
+        <v>0.3173617323261411</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.080135935190299</v>
+        <v>1.26670796795969</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.05233833442117941</v>
+        <v>0.04064210050254857</v>
       </c>
       <c r="E13">
-        <v>0.3447096164670223</v>
+        <v>0.1753085366220848</v>
       </c>
       <c r="F13">
-        <v>1.460800616995499</v>
+        <v>1.72439092507183</v>
       </c>
       <c r="G13">
-        <v>1.350340176102009</v>
+        <v>1.681998012851409</v>
       </c>
       <c r="H13">
-        <v>1.192760552846721</v>
+        <v>0.9584577585138732</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,13 +965,13 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.5910304341271342</v>
+        <v>2.069976681844906</v>
       </c>
       <c r="L13">
-        <v>0.1412761460975105</v>
+        <v>0.2839096363780413</v>
       </c>
       <c r="M13">
-        <v>0.2246707477757113</v>
+        <v>0.3157052023975169</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.075650983419933</v>
+        <v>1.246399154815776</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.05230598332124714</v>
+        <v>0.04072576928633609</v>
       </c>
       <c r="E14">
-        <v>0.344857692540125</v>
+        <v>0.1756142717566931</v>
       </c>
       <c r="F14">
-        <v>1.455930596939893</v>
+        <v>1.700897263815477</v>
       </c>
       <c r="G14">
-        <v>1.345517030781195</v>
+        <v>1.659187396832607</v>
       </c>
       <c r="H14">
-        <v>1.191297123094273</v>
+        <v>0.9491040685707617</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,13 +1012,13 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.5809085057094876</v>
+        <v>2.034474544793596</v>
       </c>
       <c r="L14">
-        <v>0.1400056037495432</v>
+        <v>0.2787019377553577</v>
       </c>
       <c r="M14">
-        <v>0.2234309281407789</v>
+        <v>0.3103141421717694</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.072913282252955</v>
+        <v>1.233993317343192</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.05228605982800971</v>
+        <v>0.04077678165094056</v>
       </c>
       <c r="E15">
-        <v>0.3449491008940102</v>
+        <v>0.1758032012520401</v>
       </c>
       <c r="F15">
-        <v>1.452961541839088</v>
+        <v>1.686578490459766</v>
       </c>
       <c r="G15">
-        <v>1.342576043033972</v>
+        <v>1.645289610591448</v>
       </c>
       <c r="H15">
-        <v>1.190410279890159</v>
+        <v>0.9434128572336533</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,13 +1059,13 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.5747071042875973</v>
+        <v>2.012760581705209</v>
       </c>
       <c r="L15">
-        <v>0.1392286549432953</v>
+        <v>0.2755196252723096</v>
       </c>
       <c r="M15">
-        <v>0.2226735549807799</v>
+        <v>0.3070204636009137</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.057369882037477</v>
+        <v>1.163399369959023</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.05217024246800861</v>
+        <v>0.04106557400833566</v>
       </c>
       <c r="E16">
-        <v>0.3454837769582753</v>
+        <v>0.1769109333633869</v>
       </c>
       <c r="F16">
-        <v>1.436161056152969</v>
+        <v>1.605580402071368</v>
       </c>
       <c r="G16">
-        <v>1.325926431886131</v>
+        <v>1.56674180303915</v>
       </c>
       <c r="H16">
-        <v>1.185474457889995</v>
+        <v>0.9113634941748785</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,13 +1106,13 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.5391475799065404</v>
+        <v>1.888785394641928</v>
       </c>
       <c r="L16">
-        <v>0.1347961471002463</v>
+        <v>0.2573932366341865</v>
       </c>
       <c r="M16">
-        <v>0.2183648580915687</v>
+        <v>0.2882704421965983</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.047964390401802</v>
+        <v>1.120515664378019</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.05209772979390692</v>
+        <v>0.04123968563823155</v>
       </c>
       <c r="E17">
-        <v>0.3458214752823228</v>
+        <v>0.1776124738719176</v>
       </c>
       <c r="F17">
-        <v>1.426045217025575</v>
+        <v>1.556788577430495</v>
       </c>
       <c r="G17">
-        <v>1.315894161666478</v>
+        <v>1.519484645687754</v>
       </c>
       <c r="H17">
-        <v>1.182576994231084</v>
+        <v>0.892184299203592</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,13 +1153,13 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.5173136074842546</v>
+        <v>1.813104726501024</v>
       </c>
       <c r="L17">
-        <v>0.1320947027881374</v>
+        <v>0.2463656715326437</v>
       </c>
       <c r="M17">
-        <v>0.2157497751285078</v>
+        <v>0.2768733154959833</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.042602436187934</v>
+        <v>1.095997325251943</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.05205548672577365</v>
+        <v>0.04133874941404159</v>
       </c>
       <c r="E18">
-        <v>0.3460192756111224</v>
+        <v>0.1780239182883392</v>
       </c>
       <c r="F18">
-        <v>1.420296856120629</v>
+        <v>1.529037409236011</v>
       </c>
       <c r="G18">
-        <v>1.31019052752734</v>
+        <v>1.492626912935094</v>
       </c>
       <c r="H18">
-        <v>1.180958385946553</v>
+        <v>0.881321728345938</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,13 +1200,13 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.5047482096130125</v>
+        <v>1.769699194276939</v>
       </c>
       <c r="L18">
-        <v>0.1305474381372278</v>
+        <v>0.2400545945656347</v>
       </c>
       <c r="M18">
-        <v>0.2142560193707581</v>
+        <v>0.2703544668237967</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.040795196451256</v>
+        <v>1.087720355596275</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.05204109211290842</v>
+        <v>0.04137210902234756</v>
       </c>
       <c r="E19">
-        <v>0.3460868600552853</v>
+        <v>0.1781645765651438</v>
       </c>
       <c r="F19">
-        <v>1.418362574793349</v>
+        <v>1.519693435315929</v>
       </c>
       <c r="G19">
-        <v>1.308270812786105</v>
+        <v>1.483587208046828</v>
       </c>
       <c r="H19">
-        <v>1.180418583876815</v>
+        <v>0.8776720723294034</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,13 +1247,13 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.5004925704924119</v>
+        <v>1.755022885521356</v>
       </c>
       <c r="L19">
-        <v>0.1300246841549892</v>
+        <v>0.2379230066256923</v>
       </c>
       <c r="M19">
-        <v>0.2137520425276591</v>
+        <v>0.2681533541042818</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.048960672588436</v>
+        <v>1.125065285606894</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.05210550437408656</v>
+        <v>0.04122126393036751</v>
       </c>
       <c r="E20">
-        <v>0.3457851578147171</v>
+        <v>0.1775369691523041</v>
       </c>
       <c r="F20">
-        <v>1.427114818486487</v>
+        <v>1.561949815413243</v>
       </c>
       <c r="G20">
-        <v>1.316955211905821</v>
+        <v>1.524481386231685</v>
       </c>
       <c r="H20">
-        <v>1.18288047243891</v>
+        <v>0.8942083037547377</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,13 +1294,13 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.5196386041863548</v>
+        <v>1.821147934178953</v>
       </c>
       <c r="L20">
-        <v>0.1323816000495697</v>
+        <v>0.2475362453408394</v>
       </c>
       <c r="M20">
-        <v>0.2160270823101342</v>
+        <v>0.2780827340935659</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.076966351326575</v>
+        <v>1.252357231034722</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.05231550803778262</v>
+        <v>0.04070124339670755</v>
       </c>
       <c r="E21">
-        <v>0.3448140515880835</v>
+        <v>0.1755241235540748</v>
       </c>
       <c r="F21">
-        <v>1.457358127491389</v>
+        <v>1.707782859118581</v>
       </c>
       <c r="G21">
-        <v>1.346930927252998</v>
+        <v>1.665871817724536</v>
       </c>
       <c r="H21">
-        <v>1.191724977591321</v>
+        <v>0.9518434638241899</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.5838818592468442</v>
+        <v>2.044895606972517</v>
       </c>
       <c r="L21">
-        <v>0.1403785229958459</v>
+        <v>0.2802299772688457</v>
       </c>
       <c r="M21">
-        <v>0.2237946656673842</v>
+        <v>0.3118958419087008</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.095693428431559</v>
+        <v>1.337044137636894</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.05244795032794869</v>
+        <v>0.04035087571066143</v>
       </c>
       <c r="E22">
-        <v>0.3442110520673536</v>
+        <v>0.1742824264598859</v>
       </c>
       <c r="F22">
-        <v>1.477749039854217</v>
+        <v>1.806257975330922</v>
       </c>
       <c r="G22">
-        <v>1.367117993866145</v>
+        <v>1.761557588525733</v>
       </c>
       <c r="H22">
-        <v>1.197932735568116</v>
+        <v>0.9911979402903057</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,13 +1388,13 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.6258047297558562</v>
+        <v>2.192528311187942</v>
       </c>
       <c r="L22">
-        <v>0.145662964106009</v>
+        <v>0.3019290839483944</v>
       </c>
       <c r="M22">
-        <v>0.2289631368159846</v>
+        <v>0.3343689854634349</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.085659769318198</v>
+        <v>1.291699082233521</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.05237770500065153</v>
+        <v>0.04053887750358953</v>
       </c>
       <c r="E23">
-        <v>0.3445299895462757</v>
+        <v>0.1749382269149482</v>
       </c>
       <c r="F23">
-        <v>1.46680873678217</v>
+        <v>1.75339088966426</v>
       </c>
       <c r="G23">
-        <v>1.356289098886805</v>
+        <v>1.710167824704826</v>
       </c>
       <c r="H23">
-        <v>1.194580410487191</v>
+        <v>0.9700300088361473</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,13 +1435,13 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.6034355818705706</v>
+        <v>2.113590593264348</v>
       </c>
       <c r="L23">
-        <v>0.1428372619811</v>
+        <v>0.290314957463238</v>
       </c>
       <c r="M23">
-        <v>0.2261962384459721</v>
+        <v>0.3223378702189095</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.048510112007705</v>
+        <v>1.123007979977473</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.05210199121325232</v>
+        <v>0.04122959559962425</v>
       </c>
       <c r="E24">
-        <v>0.3458015655633853</v>
+        <v>0.1775710795791898</v>
       </c>
       <c r="F24">
-        <v>1.426631041826539</v>
+        <v>1.559615489685896</v>
       </c>
       <c r="G24">
-        <v>1.316475311599817</v>
+        <v>1.522221395312101</v>
       </c>
       <c r="H24">
-        <v>1.182743122967082</v>
+        <v>0.8932927430537916</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,13 +1482,13 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.5185875129093631</v>
+        <v>1.817511278319017</v>
       </c>
       <c r="L24">
-        <v>0.1322518756311695</v>
+        <v>0.2470069396968455</v>
       </c>
       <c r="M24">
-        <v>0.2159016815446648</v>
+        <v>0.2775358520974365</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.010268208455443</v>
+        <v>0.9465872428920932</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.05178413162492745</v>
+        <v>0.04193385005953587</v>
       </c>
       <c r="E25">
-        <v>0.3473095171989353</v>
+        <v>0.1807130790071243</v>
       </c>
       <c r="F25">
-        <v>1.385967930351626</v>
+        <v>1.362365975796166</v>
       </c>
       <c r="G25">
-        <v>1.276076579724815</v>
+        <v>1.331661361730454</v>
       </c>
       <c r="H25">
-        <v>1.171807014876862</v>
+        <v>0.8168849284756448</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,13 +1529,13 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.4267948550564427</v>
+        <v>1.50274132752682</v>
       </c>
       <c r="L25">
-        <v>0.1210837328456051</v>
+        <v>0.2014797817725196</v>
       </c>
       <c r="M25">
-        <v>0.2051940516405395</v>
+        <v>0.2305802321211168</v>
       </c>
       <c r="N25">
         <v>0</v>
